--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Pdgfc</t>
+  </si>
+  <si>
+    <t>Pdgfrb</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pdgfc</t>
-  </si>
-  <si>
-    <t>Pdgfrb</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2663606666666666</v>
+        <v>2.441874</v>
       </c>
       <c r="H2">
-        <v>0.799082</v>
+        <v>7.325622</v>
       </c>
       <c r="I2">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="J2">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N2">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O2">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P2">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q2">
-        <v>1.933626525633111</v>
+        <v>14.8369485177</v>
       </c>
       <c r="R2">
-        <v>17.402638730698</v>
+        <v>133.5325366593</v>
       </c>
       <c r="S2">
-        <v>0.001366420471960507</v>
+        <v>0.02221036861862351</v>
       </c>
       <c r="T2">
-        <v>0.001366420471960507</v>
+        <v>0.0222103686186235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2663606666666666</v>
+        <v>2.441874</v>
       </c>
       <c r="H3">
-        <v>0.799082</v>
+        <v>7.325622</v>
       </c>
       <c r="I3">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="J3">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>180.397216</v>
       </c>
       <c r="O3">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P3">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q3">
-        <v>16.01690757285689</v>
+        <v>146.835757140928</v>
       </c>
       <c r="R3">
-        <v>144.152168155712</v>
+        <v>1321.521814268352</v>
       </c>
       <c r="S3">
-        <v>0.01131854063590953</v>
+        <v>0.2198077514796316</v>
       </c>
       <c r="T3">
-        <v>0.01131854063590953</v>
+        <v>0.2198077514796316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2663606666666666</v>
+        <v>2.441874</v>
       </c>
       <c r="H4">
-        <v>0.799082</v>
+        <v>7.325622</v>
       </c>
       <c r="I4">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="J4">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N4">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O4">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P4">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q4">
-        <v>18.55770954202578</v>
+        <v>328.625662677796</v>
       </c>
       <c r="R4">
-        <v>167.019385878232</v>
+        <v>2957.630964100164</v>
       </c>
       <c r="S4">
-        <v>0.01311402894755916</v>
+        <v>0.4919405831263703</v>
       </c>
       <c r="T4">
-        <v>0.01311402894755917</v>
+        <v>0.4919405831263703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.441874</v>
+        <v>0.885117</v>
       </c>
       <c r="H5">
-        <v>7.325622</v>
+        <v>2.655351</v>
       </c>
       <c r="I5">
-        <v>0.2365134606058369</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="J5">
-        <v>0.236513460605837</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N5">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O5">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P5">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q5">
-        <v>17.726612557862</v>
+        <v>5.37801514785</v>
       </c>
       <c r="R5">
-        <v>159.539513020758</v>
+        <v>48.40213633065</v>
       </c>
       <c r="S5">
-        <v>0.01252672425438725</v>
+        <v>0.008050691739463291</v>
       </c>
       <c r="T5">
-        <v>0.01252672425438726</v>
+        <v>0.00805069173946329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.441874</v>
+        <v>0.885117</v>
       </c>
       <c r="H6">
-        <v>7.325622</v>
+        <v>2.655351</v>
       </c>
       <c r="I6">
-        <v>0.2365134606058369</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="J6">
-        <v>0.236513460605837</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>180.397216</v>
       </c>
       <c r="O6">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P6">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q6">
-        <v>146.835757140928</v>
+        <v>53.22421421142401</v>
       </c>
       <c r="R6">
-        <v>1321.521814268352</v>
+        <v>479.017927902816</v>
       </c>
       <c r="S6">
-        <v>0.1037632561993799</v>
+        <v>0.07967469966361783</v>
       </c>
       <c r="T6">
-        <v>0.1037632561993799</v>
+        <v>0.0796746996636178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.441874</v>
+        <v>0.885117</v>
       </c>
       <c r="H7">
-        <v>7.325622</v>
+        <v>2.655351</v>
       </c>
       <c r="I7">
-        <v>0.2365134606058369</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="J7">
-        <v>0.236513460605837</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N7">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O7">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P7">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q7">
-        <v>170.128679272808</v>
+        <v>119.118415066618</v>
       </c>
       <c r="R7">
-        <v>1531.158113455272</v>
+        <v>1072.065735599562</v>
       </c>
       <c r="S7">
-        <v>0.1202234801520698</v>
+        <v>0.1783159053722934</v>
       </c>
       <c r="T7">
-        <v>0.1202234801520699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.616226333333334</v>
-      </c>
-      <c r="H8">
-        <v>22.848679</v>
-      </c>
-      <c r="I8">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="J8">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>7.259429666666667</v>
-      </c>
-      <c r="N8">
-        <v>21.778289</v>
-      </c>
-      <c r="O8">
-        <v>0.05296410708422108</v>
-      </c>
-      <c r="P8">
-        <v>0.05296410708422109</v>
-      </c>
-      <c r="Q8">
-        <v>55.28945939224789</v>
-      </c>
-      <c r="R8">
-        <v>497.6051345302311</v>
-      </c>
-      <c r="S8">
-        <v>0.03907096235787333</v>
-      </c>
-      <c r="T8">
-        <v>0.03907096235787334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.616226333333334</v>
-      </c>
-      <c r="H9">
-        <v>22.848679</v>
-      </c>
-      <c r="I9">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="J9">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>60.13240533333334</v>
-      </c>
-      <c r="N9">
-        <v>180.397216</v>
-      </c>
-      <c r="O9">
-        <v>0.438720299189682</v>
-      </c>
-      <c r="P9">
-        <v>0.4387202991896821</v>
-      </c>
-      <c r="Q9">
-        <v>457.9820089864072</v>
-      </c>
-      <c r="R9">
-        <v>4121.838080877665</v>
-      </c>
-      <c r="S9">
-        <v>0.3236385023543927</v>
-      </c>
-      <c r="T9">
-        <v>0.3236385023543927</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.616226333333334</v>
-      </c>
-      <c r="H10">
-        <v>22.848679</v>
-      </c>
-      <c r="I10">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="J10">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>69.67135866666666</v>
-      </c>
-      <c r="N10">
-        <v>209.014076</v>
-      </c>
-      <c r="O10">
-        <v>0.5083155937260968</v>
-      </c>
-      <c r="P10">
-        <v>0.5083155937260969</v>
-      </c>
-      <c r="Q10">
-        <v>530.6328365561782</v>
-      </c>
-      <c r="R10">
-        <v>4775.695529005604</v>
-      </c>
-      <c r="S10">
-        <v>0.3749780846264679</v>
-      </c>
-      <c r="T10">
-        <v>0.3749780846264679</v>
+        <v>0.1783159053722934</v>
       </c>
     </row>
   </sheetData>
